--- a/src/Results/Ex=-25 Ey=0 Ez=0 NOE=2 MPE=3/NormalizedEnergyDistribution.xlsx
+++ b/src/Results/Ex=-25 Ey=0 Ez=0 NOE=2 MPE=3/NormalizedEnergyDistribution.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -351,7 +351,7 @@
         <v>0.5</v>
       </c>
       <c r="B1">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>1.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -423,86 +423,6 @@
         <v>9.5</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10.5</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11.5</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12.5</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13.5</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14.5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15.5</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16.5</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17.5</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18.5</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19.5</v>
-      </c>
-      <c r="B20">
         <v>0.25</v>
       </c>
     </row>
